--- a/sheet_data.xlsx
+++ b/sheet_data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mojtaba/code/javascript/react/kosar-kavir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B63CB1-D816-4A4E-B604-86BE108A99C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0406C290-BB08-F343-9FEE-FD0E26F4A1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="6780" windowWidth="25040" windowHeight="13920" xr2:uid="{BF750E83-51DB-C64D-9AE5-6EF7354D4478}"/>
+    <workbookView xWindow="-40" yWindow="500" windowWidth="25040" windowHeight="13920" activeTab="2" xr2:uid="{BF750E83-51DB-C64D-9AE5-6EF7354D4478}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="755">
   <si>
     <t xml:space="preserve">دانه ذرت دندانه اسبی      کیلویی </t>
   </si>
@@ -920,19 +922,1405 @@
   </si>
   <si>
     <t>orderPoint</t>
+  </si>
+  <si>
+    <t>محمدصادق موحدي پاريزي</t>
+  </si>
+  <si>
+    <t>مريم جهانبخشيان</t>
+  </si>
+  <si>
+    <t>سجاد موحدي پاريزي</t>
+  </si>
+  <si>
+    <t>آرتور باباخانيانس</t>
+  </si>
+  <si>
+    <t>ولي الله عابدي ( فروشگاه فيلتر توكل )</t>
+  </si>
+  <si>
+    <t>ميترا  يوحنائي ( بايا نشانه نو )</t>
+  </si>
+  <si>
+    <t>مظفر  نيكوئي ماهاني ( موادغذايي نيكويي)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بهين طعم آريا </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> صنايع غذايي آب حيات گستر </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت روغن نباتي گلناز  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> مجتمع آهك اسپندار </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت عطرينه سازيبا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">زراعي و توليد مواد غذايي زيتون طلايي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">نوين طعم ساز گيتي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">مجتمع صنايع شيرپويان  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت تدارك آتيه بارز پوشش  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هومان بازرگان مهر پارسه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت سلطان چاپ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت كشت و صنعت خزل </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت اشكان مهر يكتا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">نانوايي سنتي بهشت  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">مجتمع چاپ و صنايع بسته بندي الماس سبز كوير </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت گيتي تجارت تاو </t>
+  </si>
+  <si>
+    <t xml:space="preserve">صنايع بسته بندي آرا سلولز فارس </t>
+  </si>
+  <si>
+    <t xml:space="preserve">پخش مواد غذايي النا - ميرمخلصوني </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فيدار تجارت پترو آذرخش </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت نايلون سپيد </t>
+  </si>
+  <si>
+    <t xml:space="preserve">بهياب صنعت تجارت فردا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت زرين شاد سپاهان  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">بهرنگ تجارت خلاق </t>
+  </si>
+  <si>
+    <t xml:space="preserve">طبيعت سبز پارس كهن  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت جهان گستر پارس نيرو </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت نشا گستر پرديس  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه تحرير اصغري  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت كارا چسب كولاك kck </t>
+  </si>
+  <si>
+    <t>مظفر  عليرضايي</t>
+  </si>
+  <si>
+    <t>محمدرضا معصوم پورعسكري</t>
+  </si>
+  <si>
+    <t>حسام صفي نتاج</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عياسي پاريزي حسين </t>
+  </si>
+  <si>
+    <t>پورنجفي(حساب مشترك) دانيال و محمد مهدي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت ممتاز دانه امين صنعت جنوب شرق  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت ويژن پيك  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">توليدي بازرگاني پارس محزون </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت راشا تجارت شريف  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">اكبر  سنبله قطب آبادي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت صنعت غذايي كوروش  </t>
+  </si>
+  <si>
+    <t>محققي امين</t>
+  </si>
+  <si>
+    <t>حكام محمدعلي</t>
+  </si>
+  <si>
+    <t>محمدرضا  اسدي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت تبريز چسب يكتا </t>
+  </si>
+  <si>
+    <t>بخشايي درنا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عالمه  رضازاده فيروزآبادي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت كيان پخش رسا  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ابراهيم  اميري </t>
+  </si>
+  <si>
+    <t>بستانكاران متفرقه بستانكاران متفرقه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هادي پورقاسمي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">انبار دپوي تهران </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت مدرن كارتن صنعت سبز </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت توسعه ارتباطات آترين رهام  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">امين واصف پور </t>
+  </si>
+  <si>
+    <t xml:space="preserve">پارسا تدبير آينده تارنما  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت پخش سراسري طبيعت  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه مواد غذايي برادران رجب زاده  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسماعيل حاجي مقصودي </t>
+  </si>
+  <si>
+    <t>رضا حاج محمدي ( عمده فروشي حاج محمدي )</t>
+  </si>
+  <si>
+    <t>سبحان موحدي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت بازرگاني مريم بروجن (خريد روغن) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">آويسا طعم آسيا  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خوش طعم آفرين بهديس  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرانامان  پارس  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت ستاره تجارت آرام  </t>
+  </si>
+  <si>
+    <t>سعيد صداقتي ( پخش روغن صداقتي )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت پارس پوشش نقش ايرانيان پارس  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت زرين صنعت سرو ( قاسمي ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">مجيد نيك روان گلسفيد </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت پويا طب جاويد شرق </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت توليدي كالا آوران ياس سپيد  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت بهاران تجارت آران كبير </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت آرتين تجارت اكسير  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت گوهر طعم و مزه  </t>
+  </si>
+  <si>
+    <t>علي عليرضائي</t>
+  </si>
+  <si>
+    <t>سينا پرويزي ( از طرف آقاي عباس نيا - ذرت )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت چاشني سازان ترگل  </t>
+  </si>
+  <si>
+    <t>عباس حسن پور ( ذرت )</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>SUPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پالاد ايوان مهر پارس </t>
+  </si>
+  <si>
+    <t xml:space="preserve">تعاوني مصرف سعادتآباد </t>
+  </si>
+  <si>
+    <t xml:space="preserve">توسعه تجارت الكترونيك گلستان </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدمات كالاي شهروند </t>
+  </si>
+  <si>
+    <t xml:space="preserve">دفتر پخش تهران </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ستاره طلايي سينا(فروشگاه سورنا) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سوپر اهورا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سوپر آپلاس </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سوپر پاندا اكباتان </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سوپر جام جم </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سوپر ساندويج مسعود </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سوپر شيرين عسل </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سوپر طهران </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سوپر كادوس </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سوپر معدلت </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سوپر ياران دريان استادمعين </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سوپر ياران دريان خوش </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سوپر ياران دريان شعبه باهنر </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت آزادپخش تجارت آوا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت پارس نان آور سبحان </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت پيشگامان معدن وصنعت رادمان </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت تابان پخش كاسپين آرتين - گيلان </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت تميز ريس خونه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت خدماتي كالاي شهروند:الماس </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت خدماتي كالاي شهروند: هفت حوض </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت رخشان توزيع مشتاق </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت رويداد نكاران اطلس تجارت </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت كارن پيشرو تجارت ايرانيان </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت كالارسان هستي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت ماهان مهر نفيس </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت نازآرياسبزگسترپارسيان </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت نگين بندر هامور </t>
+  </si>
+  <si>
+    <t xml:space="preserve">افق آينده كاسپين </t>
+  </si>
+  <si>
+    <t xml:space="preserve">اسپار </t>
+  </si>
+  <si>
+    <t>حجت بهروزيان</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت ويراتجارت سپند </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت هما آفرينان گيتي نگر </t>
+  </si>
+  <si>
+    <t xml:space="preserve">صادرات امارات </t>
+  </si>
+  <si>
+    <t xml:space="preserve">صادرات پاكستان - حامد زشهان </t>
+  </si>
+  <si>
+    <t xml:space="preserve">صادرات تركمنستان - كريم گرگانلي داوجي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي افق كوروش - انبار دو البرز </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي افق كوروش ( انبار دوم اصفهان) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي افق كوروش ( آمل) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي افق كوروش (تهران - شرق ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي افق كوروش (تهران - غرب ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي افق كوروش (شورآباد) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي افق كوروش (شيراز) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي افق كوروش انبار آق قلا گرگان </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي ديان گستر پارسيان </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي رفاه-تهران غرب-فروشگاه سعادت آباد </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي رفاه-تهران غرب-ماركت پاك نژاد </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي رفاه - قوچان - ماركت تقديسي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي رفاه -تهران شرق-پيروزي -ماركت عظيمي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي رفاه : ابريشم </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي رفاه : انبار مركزي شيراز </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي رفاه : آذربايجان شرقي -تبريز </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي رفاه : تهران شمال فروشگاه شريعتي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي رفاه : تهران غرب-جنت آباد-ماركت صالحي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي رفاه : جواديه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي رفاه : خدامي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي رفاه : رفاه بوشهرشهداي خليج فارس </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي رفاه : رفاه تهران جنوب-فروشگاه پرديس </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي رفاه : رفاه تهران شرق-فروشگاه زمرد </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي رفاه : رفاه كردستان-فروشگاه سنندج </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي رفاه : زرتشت </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي رفاه : فتح </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت ارشيا پخش نوبخت  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">صادرات عراق - صالح احمد ابراهيم  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي بعلاوه يك  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي رفاه : تهران شرق ماركت نصيرزاده و عظيمي  </t>
+  </si>
+  <si>
+    <t>ابراهيم پيرعليلو</t>
+  </si>
+  <si>
+    <t>ابوالفضل مصلحي</t>
+  </si>
+  <si>
+    <t>احمد كريمي صفت</t>
+  </si>
+  <si>
+    <t>احمد ميرزايي</t>
+  </si>
+  <si>
+    <t>اسكندر طايفه حسيني غلمانسراي</t>
+  </si>
+  <si>
+    <t>اشرفي عرفاني</t>
+  </si>
+  <si>
+    <t>افشين افشين نيا</t>
+  </si>
+  <si>
+    <t>اكبر اكبري</t>
+  </si>
+  <si>
+    <t>الهه گودرزي فراهاني</t>
+  </si>
+  <si>
+    <t>امير احمدي مراشي</t>
+  </si>
+  <si>
+    <t>امير ماشينچيان</t>
+  </si>
+  <si>
+    <t>امير ميلادعراقيان</t>
+  </si>
+  <si>
+    <t>اميرحسين نياقي</t>
+  </si>
+  <si>
+    <t>بابك فياض</t>
+  </si>
+  <si>
+    <t>بهنام فيضي</t>
+  </si>
+  <si>
+    <t>پدرام محمدي</t>
+  </si>
+  <si>
+    <t>پژمان رهامنش</t>
+  </si>
+  <si>
+    <t>پوريا ترك زبان</t>
+  </si>
+  <si>
+    <t>پيمان احمي ماته خرپه</t>
+  </si>
+  <si>
+    <t>جعفر رضائي نظرلو</t>
+  </si>
+  <si>
+    <t>حافظ رنج پيشه</t>
+  </si>
+  <si>
+    <t>حامد اسماعيلي مشتقي</t>
+  </si>
+  <si>
+    <t>حامد باقريان</t>
+  </si>
+  <si>
+    <t>حبيب اله رستمي كندري</t>
+  </si>
+  <si>
+    <t>حسين عزتيان بيرق</t>
+  </si>
+  <si>
+    <t>حسين عظيمي</t>
+  </si>
+  <si>
+    <t>حسين  گوهري</t>
+  </si>
+  <si>
+    <t>حميدرضا دهقاني</t>
+  </si>
+  <si>
+    <t>حميدرضا قرباني</t>
+  </si>
+  <si>
+    <t>داود مسلمي عليشاهي</t>
+  </si>
+  <si>
+    <t>رامش واسعي جهارمحالي</t>
+  </si>
+  <si>
+    <t>رحمان ولي زادليقوان</t>
+  </si>
+  <si>
+    <t>رسول آذرمي خسروشاهي</t>
+  </si>
+  <si>
+    <t>رمضانعلي سبحاني نژاد</t>
+  </si>
+  <si>
+    <t>زري  نظري نسب</t>
+  </si>
+  <si>
+    <t>زهرا حاجي رحيمي</t>
+  </si>
+  <si>
+    <t>سجاد ارشي نصيرآبادي</t>
+  </si>
+  <si>
+    <t>سعيد زارع بي مثل</t>
+  </si>
+  <si>
+    <t>سعيد سعيدي تاش</t>
+  </si>
+  <si>
+    <t>سعيد صفاكار</t>
+  </si>
+  <si>
+    <t>سيدامير قليچ خاني</t>
+  </si>
+  <si>
+    <t>سيدحميدرضا ميرغفوري</t>
+  </si>
+  <si>
+    <t>شايان بهرامي اسكندري</t>
+  </si>
+  <si>
+    <t>شكراله دهقاني</t>
+  </si>
+  <si>
+    <t>شيرزاد خوئي</t>
+  </si>
+  <si>
+    <t>صمد آقاجاني درويش بقال</t>
+  </si>
+  <si>
+    <t>عباس احسني داريان</t>
+  </si>
+  <si>
+    <t>عباس شيرمحمدي</t>
+  </si>
+  <si>
+    <t>عباسقلي مجيدنژادي</t>
+  </si>
+  <si>
+    <t>عبدالحميد رحمتي بافراني</t>
+  </si>
+  <si>
+    <t>علي اميري</t>
+  </si>
+  <si>
+    <t>علي آهنگري</t>
+  </si>
+  <si>
+    <t>علي باقري</t>
+  </si>
+  <si>
+    <t>علي جعفرزاده</t>
+  </si>
+  <si>
+    <t>علي قوجازاده</t>
+  </si>
+  <si>
+    <t>علي كريميان نظرلو</t>
+  </si>
+  <si>
+    <t>علي اصغر بهرامي</t>
+  </si>
+  <si>
+    <t>علي رضا احمدوند</t>
+  </si>
+  <si>
+    <t>عليرضا اسكندري نيا</t>
+  </si>
+  <si>
+    <t>عليرضا نجفعلي زاده</t>
+  </si>
+  <si>
+    <t>غلامرضا عابد</t>
+  </si>
+  <si>
+    <t>فرشاد سپهرنيا</t>
+  </si>
+  <si>
+    <t>سجاد محمدي رنجبر دره در</t>
+  </si>
+  <si>
+    <t>حميد قاسمي نسب دهنوي</t>
+  </si>
+  <si>
+    <t>رضا بمي ناصريه</t>
+  </si>
+  <si>
+    <t>مريم  حيدري لري</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حسين حدادي </t>
+  </si>
+  <si>
+    <t>فريبا مرتضوي</t>
+  </si>
+  <si>
+    <t>سبحان  فارسي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عبدالرضا نصيري ماهونكي </t>
+  </si>
+  <si>
+    <t>ناصر سوف باف</t>
+  </si>
+  <si>
+    <t>نعيم احمدي(خريد خوب)</t>
+  </si>
+  <si>
+    <t>حميد  براهوئي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه هاي زنجيره اي افق كوروش  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">بازرگاني سامان انديشان امرتات  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپرماركت هاي ماف پارس  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه هاي زنجيره اي اورست مدرن پارس (جانبو) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي افق كوروش (انبار اروميه2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپر ماركت هاي ماف پارس: هديش </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپر ماركت هاي ماف پارس (پاسداران) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپر ماركت هاي ماف پارس (شهاب) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپر ماركت هاي ماف پارس: اپال </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپر ماركت هاي ماف پارس (سارا -رباط كريم) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپر ماركت هاي ماف پارس برگ جهان </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه هاي زنجيره اي اورست مدرن پارس-اروميه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي رفاه : گيلان-فروشگاه انزلي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">صادرات بحرين  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه هاي زنجيره اي افق كوروش (انبار مركزي) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپر ماركت هاي ماف پارس: تيراژه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپر ماركت هاي ماف پارس: كوروش </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپر ماركت هاي ماف پارس: تهرانسر(گمرك) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپر ماركت هاي ماف پارس: حكيميه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپر ماركت هاي ماف پارس: تهرانپارس </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپرماركت هاي ماف پارس: بندر عباس </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپر ماركت هاي ماف پارس(مشهد) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپر ماركت هاي ماف پارس(قم) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپر ماركت هاي ماف پارس(جم سنتر) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپر ماركت هاي ماف پارس: افرا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت پخش سي گل آشنا نوين  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپر ماركت هاي ماف پارس(بوتانيكال مشهد) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپرماركت هاي ماف پارس(يزد) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپرماركت هاي ماف پارس(فدك_اصفهان) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپرماركت هاي ماف پارس: سيتاديوم اروميه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: بيهقي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: مترو </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: بهرود </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: ايران زمين </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: شميران سنتر </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: ازادگان </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: شهرري </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: صادقيه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: چيذر </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: مهرشهر </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: حكيميه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: نبرد </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: بوستان </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند:خاني اباد </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: بهاران </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: جنت اباد </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: لواسانات </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: ال احمد </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: پرند </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: نارسيس </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: نفت </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: كاشانك </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: ملك </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: هفده شهريور </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپرماركت هاي ماف پارس: مارليك </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپرماركت هاي ماف پارس: ارم </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپرماركت هاي ماف پارس: اكومال </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپرماركت هاي ماف پارس: صبا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپرماركت هاي ماف پارس: ايرانمال </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپرماركت هاي ماف پارس: شيراز </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت ماهر كار زاگرس </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپرماركت هاي ماف پارس(مجتمع سيتي سنتر _اصفهان) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: المپيك </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: داراباد </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: تماس </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: راه اهن </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: ازادي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">علي  رحمتي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">صادرات عراق- شركت اذرا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت گل گشت بارز كيش </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت ماهان پخش زرين شمال </t>
+  </si>
+  <si>
+    <t xml:space="preserve">مهر گستر كالا رسان انديشه نوين </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه هاي زنجيره اي اورست مدرن پارس-تهران1(جاده قديم قم) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سامان انديشان امرتات:فرديس </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سامان انديشان امرتات: عرش اجودانيه </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سامان انديشان امرتات: صنعت </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سامان انديشان امرتات: لاله پارك تبريز </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: تهرانسر </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت خدماتي كالاي شهروند: سرو </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سامان انديشان امرتات: پاژ مشهد </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سامان انديشان امرتات: قزوين </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سامان انديشان امرتات :  مگامال </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سامان انديشان امرتات: اطلس مال </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سامان انديشان امرتات: اردبيل </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سامان انديشان امرتات: اصفهان </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سامان انديشان امرتات: سنندج </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سامان انديشان امرتات: زرين شهر اصفهان </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سامان انديشان امرتات: فرشته </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سامان انديشان امرتات: سبحان </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سامان انديشان امرتات: شيراز </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت صبا تجارت والمازو </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سامان انديشان امرتات: هاشميه مشهد </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سامان انديشان امرتات: نيكامال </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سامان انديشان امرتات: پانوراما </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سامان انديشان امرتات: كيامال </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سامان انديشان امرتات : طوبي </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سامان انديشان امرتات : رزمال </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سامان انديشان امرتات : محمود اباد </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سامان انديشان امرتات: يزد </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سامان انديشان امرتات: تنكابن </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سامان انديشان امرتات: آمل </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سامان انديشان امرتات: عظيميه كرج </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سامان انديشان امرتات: مهرويلا كرج </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سامان انديشان امرتات: پارسه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت خدماتي كالاي شهروند: وزارت كشور </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: البرز </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سامان انديشان امرتات : شعبه مهرشهر </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه هاي زنجيره اي اورست مدرن پارس- شيراز  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه هاي زنجيره اي اورست مدرن پارس- اصفهان  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه هاي زنجيره اي اورست مدرن پارس- قزوين  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه هاي زنجيره اي اورست مدرن پارس- تبريز  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپر ماركت هاي ماف پارس ( اصفهان) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت خدمات كالاي شهروند:لويزان </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت خدمات كالاي شهروند:همت </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي افق كوروش ( اهواز -انبار منطقه 16) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي افق كوروش ( كرمان) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي افق كوروش ( مشهد) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي رفاه : فروشگاه  پاسداران </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي رفاه : فروشگاه پارك رويال </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي رفاه : فروشگاه تهرانپارس </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه هاي زنجيره اي اورست مدرن پارس-تهران2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه هاي زنجيره اي اورست مدرن پارس-تهران3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه هاي زنجيره اي اورست مدرن پارس-ساري </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه هاي زنجيره اي اورست مدرن پارس-كرمانشاه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه هاي زنجيره اي اورست مدرن پارس-مشهد </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه مواد غذايي آندره-سيرجان </t>
+  </si>
+  <si>
+    <t>حسن زاده عبدالحسين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: انديشه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">هايپرماركت هاي ماف پارس (هميلا) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت فروشگاههاي زنجيره اي پرشين تجارت پاشا (فستيوال) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت فروشگاههاي زنجيره اي پرشين تجارت پاشا (فستيوال)-شعبه 17 شهريور  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت فناوران تجارت الكترونيك روماك </t>
+  </si>
+  <si>
+    <t xml:space="preserve">آقاي حسين  مصطفي پور </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي ياران دريان (آرين)-تهران </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي ارين هوشمند گوهر -تبريز  </t>
+  </si>
+  <si>
+    <t>علي رزم خواه</t>
+  </si>
+  <si>
+    <t>محققي احسان</t>
+  </si>
+  <si>
+    <t>محمد اسفندياري</t>
+  </si>
+  <si>
+    <t>وثوقي هدي</t>
+  </si>
+  <si>
+    <t>جواد نوروز پور (هايپر زيتون)</t>
+  </si>
+  <si>
+    <t>حسين  مصطفي پور</t>
+  </si>
+  <si>
+    <t>علي رجايي نژاد</t>
+  </si>
+  <si>
+    <t>اميد عصاريان</t>
+  </si>
+  <si>
+    <t>محمد مس چي</t>
+  </si>
+  <si>
+    <t>احمد اميني</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جلال  جلاليان </t>
+  </si>
+  <si>
+    <t xml:space="preserve">جمال  عليپور </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سامان انديشان امرتات -انزلي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت فروشگاههاي زنجيره اي پرشين تجارت پاشا (فستيوال)-شعبه بومهن </t>
+  </si>
+  <si>
+    <t>ميرزا محمدي پور  جواد</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> آرامش  محمد</t>
+  </si>
+  <si>
+    <t>ازبك شاه محمود</t>
+  </si>
+  <si>
+    <t>بختياري  احمد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت سامان پخش  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت زرين عسل دنا  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">محمد  صالحي </t>
+  </si>
+  <si>
+    <t>ا سيستاني</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرزين حسيني </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت كيله پخش كرمان </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> سامان انديشان امرتات: اطلس مال تبريز </t>
+  </si>
+  <si>
+    <t>شهيدزاده اسدي شهريار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت ساسان پخش </t>
+  </si>
+  <si>
+    <t>زارع مهدي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سامان انديشان امرتات: زنجان </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت مهرافرين تجارت بارمان  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">آقاي خشايار  سهرابي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت بهسامان بلوط زاگرس  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا-شهدا بسيج </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا-قصر فيروزه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا-شهداي گمنام پرند </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا-شهيد فلاحي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا-شهيد فكوري </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا-شهدا بسيج مستضعفين </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> زنجيره اي اتكا-شهيد كوچك افشاري </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا- مهراباد </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا-چمران </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا-قزوين </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا-يزد  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا-شهيد سعادت يار </t>
+  </si>
+  <si>
+    <t xml:space="preserve">سامان انديشان امرتات :آناهيد  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا- ابوالحسني  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">بازرگاني سامان انديشان امرتات:روماك تهرانسر </t>
+  </si>
+  <si>
+    <t xml:space="preserve">بازرگاني سامان انديشان امرتات: مهران </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا-شهداي قم </t>
+  </si>
+  <si>
+    <t xml:space="preserve">بازرگاني سامان انديشان امرتات:بروجرد </t>
+  </si>
+  <si>
+    <t xml:space="preserve">بازرگاني سامان انديشان امرتات: نور </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدمات كالاي شهروند:نبرد جنوبي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا:شهرك شهيد محلاتي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا: مركزي ساري </t>
+  </si>
+  <si>
+    <t>عليرضا شفيعي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدماتي كالاي شهروند: شهريار </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا:ثامن الحجج </t>
+  </si>
+  <si>
+    <t>آقاي نييري نييري</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا-شهريار </t>
+  </si>
+  <si>
+    <t xml:space="preserve">پارسيان پخش اطلس ماندگار </t>
+  </si>
+  <si>
+    <t>علي نيرومند بابالو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا:شهداي سوم خرداد </t>
+  </si>
+  <si>
+    <t>حبيب  سليم پور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا- شهداي غواص </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> شيراز سينما </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> راد  آقاي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا : شهيد رجايي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي فاميلي مدرن  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شركت مهراد پخش پيشگامان شمال  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> جمالي  خانم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا: گناباد </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا:شهيد عليرضا رضايي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">خدمات كالاي شهروند: مارليك </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا: نامجو </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا: شهداي گلستان  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا:شهداي انقلاب </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا:شهداي بندر تركمن  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا: شهيد انصاري </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا:خراسان رضوي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا:تهراني مقدم </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا: تالش </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا: شهداي سبزوار </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا: شهداي آستانه اشرفيه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا: شهداي خمام </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا: شهداي رشت  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا:ميرزا كوچك خان  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا: رودسر </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا-شهداي هوا فضا  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا- فرهنگ بناب </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا-شهداي امنيت كلاله  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">فروشگاه زنجيره اي اتكا-آمل </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>APARTY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.25"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -970,9 +2358,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1289,7 +2680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F065AE92-E1ED-2A4E-ABDE-97EA78B58B2F}">
   <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -4179,4 +5570,5097 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7937B41F-0734-9045-AC9F-20779CCBD143}">
+  <dimension ref="A1:C85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100006</v>
+      </c>
+      <c r="C2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="1">
+        <v>100187</v>
+      </c>
+      <c r="C3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" s="1">
+        <v>100246</v>
+      </c>
+      <c r="C4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B5" s="1">
+        <v>201383</v>
+      </c>
+      <c r="C5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" s="1">
+        <v>201381</v>
+      </c>
+      <c r="C6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="1">
+        <v>201384</v>
+      </c>
+      <c r="C7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" s="1">
+        <v>201382</v>
+      </c>
+      <c r="C8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B9" s="1">
+        <v>200012</v>
+      </c>
+      <c r="C9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B10" s="1">
+        <v>200023</v>
+      </c>
+      <c r="C10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" s="1">
+        <v>200028</v>
+      </c>
+      <c r="C11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B12" s="1">
+        <v>200029</v>
+      </c>
+      <c r="C12" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B13" s="1">
+        <v>200033</v>
+      </c>
+      <c r="C13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B14" s="1">
+        <v>200038</v>
+      </c>
+      <c r="C14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B15" s="1">
+        <v>200040</v>
+      </c>
+      <c r="C15" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B16" s="1">
+        <v>200041</v>
+      </c>
+      <c r="C16" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B17" s="1">
+        <v>200095</v>
+      </c>
+      <c r="C17" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B18" s="1">
+        <v>200109</v>
+      </c>
+      <c r="C18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B19" s="1">
+        <v>200224</v>
+      </c>
+      <c r="C19" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B20" s="1">
+        <v>200258</v>
+      </c>
+      <c r="C20" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B21" s="1">
+        <v>200264</v>
+      </c>
+      <c r="C21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B22" s="1">
+        <v>200275</v>
+      </c>
+      <c r="C22" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B23" s="1">
+        <v>200276</v>
+      </c>
+      <c r="C23" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B24" s="1">
+        <v>200282</v>
+      </c>
+      <c r="C24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B25" s="1">
+        <v>200283</v>
+      </c>
+      <c r="C25" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B26" s="1">
+        <v>200295</v>
+      </c>
+      <c r="C26" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B27" s="1">
+        <v>200300</v>
+      </c>
+      <c r="C27" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B28" s="1">
+        <v>200306</v>
+      </c>
+      <c r="C28" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B29" s="1">
+        <v>200307</v>
+      </c>
+      <c r="C29" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B30" s="1">
+        <v>200332</v>
+      </c>
+      <c r="C30" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B31" s="1">
+        <v>200339</v>
+      </c>
+      <c r="C31" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B32" s="1">
+        <v>200353</v>
+      </c>
+      <c r="C32" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B33" s="1">
+        <v>201099</v>
+      </c>
+      <c r="C33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B34" s="1">
+        <v>201100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B35" s="1">
+        <v>201109</v>
+      </c>
+      <c r="C35" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B36" s="1">
+        <v>201110</v>
+      </c>
+      <c r="C36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B37" s="1">
+        <v>201111</v>
+      </c>
+      <c r="C37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B38" s="1">
+        <v>201113</v>
+      </c>
+      <c r="C38" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B39" s="1">
+        <v>201115</v>
+      </c>
+      <c r="C39" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B40" s="1">
+        <v>201126</v>
+      </c>
+      <c r="C40" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B41" s="1">
+        <v>201128</v>
+      </c>
+      <c r="C41" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B42" s="1">
+        <v>201135</v>
+      </c>
+      <c r="C42" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B43" s="1">
+        <v>201136</v>
+      </c>
+      <c r="C43" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B44" s="1">
+        <v>201139</v>
+      </c>
+      <c r="C44" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B45" s="1">
+        <v>201214</v>
+      </c>
+      <c r="C45" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B46" s="1">
+        <v>201218</v>
+      </c>
+      <c r="C46" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B47" s="1">
+        <v>201307</v>
+      </c>
+      <c r="C47" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B48" s="1">
+        <v>201308</v>
+      </c>
+      <c r="C48" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B49" s="1">
+        <v>201312</v>
+      </c>
+      <c r="C49" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B50" s="1">
+        <v>201321</v>
+      </c>
+      <c r="C50" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B51" s="1">
+        <v>201323</v>
+      </c>
+      <c r="C51" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B52" s="1">
+        <v>201332</v>
+      </c>
+      <c r="C52" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B53" s="1">
+        <v>201333</v>
+      </c>
+      <c r="C53" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B54" s="1">
+        <v>201344</v>
+      </c>
+      <c r="C54" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B55" s="1">
+        <v>201345</v>
+      </c>
+      <c r="C55" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B56" s="1">
+        <v>201372</v>
+      </c>
+      <c r="C56" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B57" s="1">
+        <v>201378</v>
+      </c>
+      <c r="C57" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B58" s="1">
+        <v>201393</v>
+      </c>
+      <c r="C58" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B59" s="1">
+        <v>201394</v>
+      </c>
+      <c r="C59" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B60" s="1">
+        <v>201395</v>
+      </c>
+      <c r="C60" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B61" s="1">
+        <v>200409</v>
+      </c>
+      <c r="C61" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B62" s="1">
+        <v>200405</v>
+      </c>
+      <c r="C62" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B63" s="1">
+        <v>200391</v>
+      </c>
+      <c r="C63" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B64" s="1">
+        <v>201417</v>
+      </c>
+      <c r="C64" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B65" s="1">
+        <v>201418</v>
+      </c>
+      <c r="C65" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B66" s="1">
+        <v>201419</v>
+      </c>
+      <c r="C66" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B67" s="1">
+        <v>201420</v>
+      </c>
+      <c r="C67" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B68" s="1">
+        <v>201432</v>
+      </c>
+      <c r="C68" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B69" s="1">
+        <v>201442</v>
+      </c>
+      <c r="C69" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B70" s="1">
+        <v>201443</v>
+      </c>
+      <c r="C70" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B71" s="1">
+        <v>201458</v>
+      </c>
+      <c r="C71" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B72" s="1">
+        <v>201485</v>
+      </c>
+      <c r="C72" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B73" s="1">
+        <v>201486</v>
+      </c>
+      <c r="C73" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B74" s="1">
+        <v>201490</v>
+      </c>
+      <c r="C74" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B75" s="1">
+        <v>201514</v>
+      </c>
+      <c r="C75" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B76" s="1">
+        <v>201515</v>
+      </c>
+      <c r="C76" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B77" s="1">
+        <v>201530</v>
+      </c>
+      <c r="C77" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B78" s="1">
+        <v>201532</v>
+      </c>
+      <c r="C78" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B79" s="1">
+        <v>201552</v>
+      </c>
+      <c r="C79" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B80" s="1">
+        <v>201567</v>
+      </c>
+      <c r="C80" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B81" s="1">
+        <v>201577</v>
+      </c>
+      <c r="C81" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B82" s="1">
+        <v>201580</v>
+      </c>
+      <c r="C82" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B83" s="1">
+        <v>201592</v>
+      </c>
+      <c r="C83" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B84" s="1">
+        <v>201622</v>
+      </c>
+      <c r="C84" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B85" s="1">
+        <v>201629</v>
+      </c>
+      <c r="C85" t="s">
+        <v>382</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{400E02C5-ACEB-DE49-862E-5E0A664FE313}">
+  <dimension ref="A1:C375"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B2" s="4">
+        <v>300100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B3" s="4">
+        <v>300101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B4" s="4">
+        <v>300102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B5" s="4">
+        <v>300103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B6" s="4">
+        <v>300104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B7" s="4">
+        <v>300105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B8" s="4">
+        <v>300106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B9" s="4">
+        <v>300107</v>
+      </c>
+      <c r="C9" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B10" s="4">
+        <v>300108</v>
+      </c>
+      <c r="C10" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B11" s="4">
+        <v>300109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B12" s="4">
+        <v>300110</v>
+      </c>
+      <c r="C12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B13" s="4">
+        <v>300111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B14" s="4">
+        <v>300112</v>
+      </c>
+      <c r="C14" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B15" s="4">
+        <v>300113</v>
+      </c>
+      <c r="C15" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B16" s="4">
+        <v>300114</v>
+      </c>
+      <c r="C16" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B17" s="4">
+        <v>300115</v>
+      </c>
+      <c r="C17" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B18" s="4">
+        <v>300116</v>
+      </c>
+      <c r="C18" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B19" s="4">
+        <v>300117</v>
+      </c>
+      <c r="C19" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B20" s="4">
+        <v>300118</v>
+      </c>
+      <c r="C20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B21" s="4">
+        <v>300119</v>
+      </c>
+      <c r="C21" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B22" s="4">
+        <v>300120</v>
+      </c>
+      <c r="C22" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B23" s="4">
+        <v>300121</v>
+      </c>
+      <c r="C23" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B24" s="4">
+        <v>300122</v>
+      </c>
+      <c r="C24" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B25" s="4">
+        <v>300123</v>
+      </c>
+      <c r="C25" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B26" s="4">
+        <v>300124</v>
+      </c>
+      <c r="C26" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B27" s="4">
+        <v>300125</v>
+      </c>
+      <c r="C27" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B28" s="4">
+        <v>300126</v>
+      </c>
+      <c r="C28" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B29" s="4">
+        <v>300127</v>
+      </c>
+      <c r="C29" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B30" s="4">
+        <v>300128</v>
+      </c>
+      <c r="C30" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B31" s="4">
+        <v>300129</v>
+      </c>
+      <c r="C31" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B32" s="4">
+        <v>300130</v>
+      </c>
+      <c r="C32" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B33" s="4">
+        <v>300131</v>
+      </c>
+      <c r="C33" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B34" s="4">
+        <v>300132</v>
+      </c>
+      <c r="C34" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B35" s="4">
+        <v>300133</v>
+      </c>
+      <c r="C35" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B36" s="4">
+        <v>300134</v>
+      </c>
+      <c r="C36" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B37" s="4">
+        <v>300135</v>
+      </c>
+      <c r="C37" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B38" s="4">
+        <v>300136</v>
+      </c>
+      <c r="C38" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B39" s="4">
+        <v>300137</v>
+      </c>
+      <c r="C39" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B40" s="4">
+        <v>300138</v>
+      </c>
+      <c r="C40" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B41" s="4">
+        <v>300139</v>
+      </c>
+      <c r="C41" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B42" s="4">
+        <v>300140</v>
+      </c>
+      <c r="C42" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B43" s="4">
+        <v>300141</v>
+      </c>
+      <c r="C43" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B44" s="4">
+        <v>300142</v>
+      </c>
+      <c r="C44" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B45" s="4">
+        <v>300143</v>
+      </c>
+      <c r="C45" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B46" s="4">
+        <v>300144</v>
+      </c>
+      <c r="C46" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B47" s="4">
+        <v>300145</v>
+      </c>
+      <c r="C47" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B48" s="4">
+        <v>300146</v>
+      </c>
+      <c r="C48" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B49" s="4">
+        <v>300147</v>
+      </c>
+      <c r="C49" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B50" s="4">
+        <v>300148</v>
+      </c>
+      <c r="C50" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B51" s="4">
+        <v>300149</v>
+      </c>
+      <c r="C51" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B52" s="4">
+        <v>300150</v>
+      </c>
+      <c r="C52" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B53" s="4">
+        <v>300151</v>
+      </c>
+      <c r="C53" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B54" s="4">
+        <v>300152</v>
+      </c>
+      <c r="C54" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B55" s="4">
+        <v>300153</v>
+      </c>
+      <c r="C55" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B56" s="4">
+        <v>300154</v>
+      </c>
+      <c r="C56" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B57" s="4">
+        <v>300155</v>
+      </c>
+      <c r="C57" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B58" s="4">
+        <v>300156</v>
+      </c>
+      <c r="C58" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B59" s="4">
+        <v>300157</v>
+      </c>
+      <c r="C59" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B60" s="4">
+        <v>300158</v>
+      </c>
+      <c r="C60" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B61" s="4">
+        <v>300159</v>
+      </c>
+      <c r="C61" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B62" s="4">
+        <v>300160</v>
+      </c>
+      <c r="C62" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B63" s="4">
+        <v>300161</v>
+      </c>
+      <c r="C63" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B64" s="4">
+        <v>300162</v>
+      </c>
+      <c r="C64" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B65" s="4">
+        <v>300163</v>
+      </c>
+      <c r="C65" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B66" s="4">
+        <v>300164</v>
+      </c>
+      <c r="C66" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B67" s="4">
+        <v>300165</v>
+      </c>
+      <c r="C67" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B68" s="4">
+        <v>300166</v>
+      </c>
+      <c r="C68" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B69" s="4">
+        <v>300167</v>
+      </c>
+      <c r="C69" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B70" s="4">
+        <v>300168</v>
+      </c>
+      <c r="C70" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B71" s="4">
+        <v>300169</v>
+      </c>
+      <c r="C71" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B72" s="4">
+        <v>300170</v>
+      </c>
+      <c r="C72" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B73" s="4">
+        <v>300171</v>
+      </c>
+      <c r="C73" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B74" s="4">
+        <v>300172</v>
+      </c>
+      <c r="C74" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B75" s="4">
+        <v>300173</v>
+      </c>
+      <c r="C75" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B76" s="4">
+        <v>300174</v>
+      </c>
+      <c r="C76" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B77" s="4">
+        <v>300175</v>
+      </c>
+      <c r="C77" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B78" s="4">
+        <v>300176</v>
+      </c>
+      <c r="C78" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B79" s="4">
+        <v>300177</v>
+      </c>
+      <c r="C79" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B80" s="4">
+        <v>300178</v>
+      </c>
+      <c r="C80" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B81" s="4">
+        <v>300179</v>
+      </c>
+      <c r="C81" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B82" s="4">
+        <v>300180</v>
+      </c>
+      <c r="C82" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B83" s="4">
+        <v>300181</v>
+      </c>
+      <c r="C83" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B84" s="4">
+        <v>300182</v>
+      </c>
+      <c r="C84" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B85" s="4">
+        <v>300183</v>
+      </c>
+      <c r="C85" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B86" s="4">
+        <v>300184</v>
+      </c>
+      <c r="C86" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B87" s="4">
+        <v>300185</v>
+      </c>
+      <c r="C87" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B88" s="4">
+        <v>300186</v>
+      </c>
+      <c r="C88" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B89" s="4">
+        <v>300187</v>
+      </c>
+      <c r="C89" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B90" s="4">
+        <v>300188</v>
+      </c>
+      <c r="C90" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B91" s="4">
+        <v>300189</v>
+      </c>
+      <c r="C91" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B92" s="4">
+        <v>300190</v>
+      </c>
+      <c r="C92" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B93" s="4">
+        <v>300191</v>
+      </c>
+      <c r="C93" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B94" s="4">
+        <v>300192</v>
+      </c>
+      <c r="C94" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B95" s="4">
+        <v>300193</v>
+      </c>
+      <c r="C95" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B96" s="4">
+        <v>300194</v>
+      </c>
+      <c r="C96" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B97" s="4">
+        <v>300195</v>
+      </c>
+      <c r="C97" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B98" s="4">
+        <v>300196</v>
+      </c>
+      <c r="C98" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B99" s="4">
+        <v>300197</v>
+      </c>
+      <c r="C99" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B100" s="4">
+        <v>300198</v>
+      </c>
+      <c r="C100" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B101" s="4">
+        <v>300199</v>
+      </c>
+      <c r="C101" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B102" s="4">
+        <v>300200</v>
+      </c>
+      <c r="C102" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B103" s="4">
+        <v>300201</v>
+      </c>
+      <c r="C103" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B104" s="4">
+        <v>300202</v>
+      </c>
+      <c r="C104" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B105" s="4">
+        <v>300203</v>
+      </c>
+      <c r="C105" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B106" s="4">
+        <v>300204</v>
+      </c>
+      <c r="C106" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B107" s="4">
+        <v>300205</v>
+      </c>
+      <c r="C107" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B108" s="4">
+        <v>300206</v>
+      </c>
+      <c r="C108" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B109" s="4">
+        <v>300207</v>
+      </c>
+      <c r="C109" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B110" s="4">
+        <v>300208</v>
+      </c>
+      <c r="C110" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B111" s="4">
+        <v>300209</v>
+      </c>
+      <c r="C111" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="B112" s="4">
+        <v>300210</v>
+      </c>
+      <c r="C112" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B113" s="4">
+        <v>300211</v>
+      </c>
+      <c r="C113" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B114" s="4">
+        <v>300212</v>
+      </c>
+      <c r="C114" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B115" s="4">
+        <v>300213</v>
+      </c>
+      <c r="C115" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B116" s="4">
+        <v>300214</v>
+      </c>
+      <c r="C116" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B117" s="4">
+        <v>300215</v>
+      </c>
+      <c r="C117" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B118" s="4">
+        <v>300216</v>
+      </c>
+      <c r="C118" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B119" s="4">
+        <v>300217</v>
+      </c>
+      <c r="C119" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="B120" s="4">
+        <v>300218</v>
+      </c>
+      <c r="C120" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B121" s="4">
+        <v>300219</v>
+      </c>
+      <c r="C121" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B122" s="4">
+        <v>300220</v>
+      </c>
+      <c r="C122" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B123" s="4">
+        <v>300221</v>
+      </c>
+      <c r="C123" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B124" s="4">
+        <v>300222</v>
+      </c>
+      <c r="C124" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B125" s="4">
+        <v>300223</v>
+      </c>
+      <c r="C125" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B126" s="4">
+        <v>300224</v>
+      </c>
+      <c r="C126" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B127" s="4">
+        <v>300225</v>
+      </c>
+      <c r="C127" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B128" s="4">
+        <v>300226</v>
+      </c>
+      <c r="C128" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B129" s="4">
+        <v>300227</v>
+      </c>
+      <c r="C129" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B130" s="4">
+        <v>300228</v>
+      </c>
+      <c r="C130" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B131" s="4">
+        <v>300229</v>
+      </c>
+      <c r="C131" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B132" s="4">
+        <v>300230</v>
+      </c>
+      <c r="C132" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B133" s="4">
+        <v>300231</v>
+      </c>
+      <c r="C133" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B134" s="4">
+        <v>300232</v>
+      </c>
+      <c r="C134" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B135" s="4">
+        <v>300233</v>
+      </c>
+      <c r="C135" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B136" s="4">
+        <v>300234</v>
+      </c>
+      <c r="C136" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B137" s="4">
+        <v>300235</v>
+      </c>
+      <c r="C137" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B138" s="4">
+        <v>300236</v>
+      </c>
+      <c r="C138" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B139" s="4">
+        <v>300237</v>
+      </c>
+      <c r="C139" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B140" s="4">
+        <v>300238</v>
+      </c>
+      <c r="C140" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B141" s="4">
+        <v>300239</v>
+      </c>
+      <c r="C141" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B142" s="4">
+        <v>300240</v>
+      </c>
+      <c r="C142" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B143" s="4">
+        <v>300241</v>
+      </c>
+      <c r="C143" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B144" s="4">
+        <v>300242</v>
+      </c>
+      <c r="C144" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B145" s="4">
+        <v>300243</v>
+      </c>
+      <c r="C145" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B146" s="4">
+        <v>300244</v>
+      </c>
+      <c r="C146" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B147" s="4">
+        <v>300245</v>
+      </c>
+      <c r="C147" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B148" s="4">
+        <v>300246</v>
+      </c>
+      <c r="C148" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B149" s="4">
+        <v>300247</v>
+      </c>
+      <c r="C149" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B150" s="4">
+        <v>300248</v>
+      </c>
+      <c r="C150" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B151" s="4">
+        <v>300249</v>
+      </c>
+      <c r="C151" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B152" s="4">
+        <v>300250</v>
+      </c>
+      <c r="C152" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B153" s="4">
+        <v>300251</v>
+      </c>
+      <c r="C153" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B154" s="4">
+        <v>300252</v>
+      </c>
+      <c r="C154" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B155" s="4">
+        <v>300253</v>
+      </c>
+      <c r="C155" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B156" s="4">
+        <v>300254</v>
+      </c>
+      <c r="C156" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B157" s="4">
+        <v>300255</v>
+      </c>
+      <c r="C157" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B158" s="4">
+        <v>300256</v>
+      </c>
+      <c r="C158" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B159" s="4">
+        <v>300257</v>
+      </c>
+      <c r="C159" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B160" s="4">
+        <v>300258</v>
+      </c>
+      <c r="C160" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B161" s="4">
+        <v>300259</v>
+      </c>
+      <c r="C161" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B162" s="4">
+        <v>300260</v>
+      </c>
+      <c r="C162" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="B163" s="4">
+        <v>300261</v>
+      </c>
+      <c r="C163" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B164" s="4">
+        <v>300262</v>
+      </c>
+      <c r="C164" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B165" s="4">
+        <v>300263</v>
+      </c>
+      <c r="C165" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B166" s="4">
+        <v>300264</v>
+      </c>
+      <c r="C166" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B167" s="4">
+        <v>300265</v>
+      </c>
+      <c r="C167" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B168" s="4">
+        <v>300266</v>
+      </c>
+      <c r="C168" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B169" s="4">
+        <v>300267</v>
+      </c>
+      <c r="C169" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B170" s="4">
+        <v>300268</v>
+      </c>
+      <c r="C170" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B171" s="4">
+        <v>300269</v>
+      </c>
+      <c r="C171" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B172" s="4">
+        <v>300270</v>
+      </c>
+      <c r="C172" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B173" s="4">
+        <v>300271</v>
+      </c>
+      <c r="C173" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B174" s="4">
+        <v>300272</v>
+      </c>
+      <c r="C174" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B175" s="4">
+        <v>300273</v>
+      </c>
+      <c r="C175" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B176" s="4">
+        <v>300274</v>
+      </c>
+      <c r="C176" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B177" s="4">
+        <v>300275</v>
+      </c>
+      <c r="C177" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B178" s="4">
+        <v>300276</v>
+      </c>
+      <c r="C178" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B179" s="4">
+        <v>300277</v>
+      </c>
+      <c r="C179" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B180" s="4">
+        <v>300278</v>
+      </c>
+      <c r="C180" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B181" s="4">
+        <v>300279</v>
+      </c>
+      <c r="C181" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B182" s="4">
+        <v>300280</v>
+      </c>
+      <c r="C182" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B183" s="4">
+        <v>300281</v>
+      </c>
+      <c r="C183" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B184" s="4">
+        <v>300282</v>
+      </c>
+      <c r="C184" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B185" s="4">
+        <v>300283</v>
+      </c>
+      <c r="C185" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B186" s="4">
+        <v>300284</v>
+      </c>
+      <c r="C186" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B187" s="4">
+        <v>300285</v>
+      </c>
+      <c r="C187" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B188" s="4">
+        <v>300286</v>
+      </c>
+      <c r="C188" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B189" s="4">
+        <v>300287</v>
+      </c>
+      <c r="C189" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B190" s="4">
+        <v>300288</v>
+      </c>
+      <c r="C190" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B191" s="4">
+        <v>300289</v>
+      </c>
+      <c r="C191" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B192" s="4">
+        <v>300290</v>
+      </c>
+      <c r="C192" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B193" s="4">
+        <v>300291</v>
+      </c>
+      <c r="C193" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B194" s="4">
+        <v>300292</v>
+      </c>
+      <c r="C194" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B195" s="4">
+        <v>300293</v>
+      </c>
+      <c r="C195" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B196" s="4">
+        <v>300294</v>
+      </c>
+      <c r="C196" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B197" s="4">
+        <v>300295</v>
+      </c>
+      <c r="C197" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B198" s="4">
+        <v>300296</v>
+      </c>
+      <c r="C198" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B199" s="4">
+        <v>300297</v>
+      </c>
+      <c r="C199" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B200" s="4">
+        <v>300298</v>
+      </c>
+      <c r="C200" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B201" s="4">
+        <v>300299</v>
+      </c>
+      <c r="C201" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B202" s="4">
+        <v>300300</v>
+      </c>
+      <c r="C202" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B203" s="4">
+        <v>300301</v>
+      </c>
+      <c r="C203" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B204" s="4">
+        <v>300302</v>
+      </c>
+      <c r="C204" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B205" s="4">
+        <v>300303</v>
+      </c>
+      <c r="C205" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B206" s="4">
+        <v>300304</v>
+      </c>
+      <c r="C206" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B207" s="4">
+        <v>300305</v>
+      </c>
+      <c r="C207" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B208" s="4">
+        <v>300306</v>
+      </c>
+      <c r="C208" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B209" s="4">
+        <v>300307</v>
+      </c>
+      <c r="C209" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B210" s="4">
+        <v>300308</v>
+      </c>
+      <c r="C210" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B211" s="4">
+        <v>300309</v>
+      </c>
+      <c r="C211" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B212" s="4">
+        <v>300310</v>
+      </c>
+      <c r="C212" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B213" s="4">
+        <v>300311</v>
+      </c>
+      <c r="C213" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B214" s="4">
+        <v>300312</v>
+      </c>
+      <c r="C214" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B215" s="4">
+        <v>300313</v>
+      </c>
+      <c r="C215" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B216" s="4">
+        <v>300314</v>
+      </c>
+      <c r="C216" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B217" s="4">
+        <v>300315</v>
+      </c>
+      <c r="C217" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B218" s="4">
+        <v>300316</v>
+      </c>
+      <c r="C218" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B219" s="4">
+        <v>300317</v>
+      </c>
+      <c r="C219" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B220" s="4">
+        <v>300318</v>
+      </c>
+      <c r="C220" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B221" s="4">
+        <v>300319</v>
+      </c>
+      <c r="C221" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B222" s="4">
+        <v>300320</v>
+      </c>
+      <c r="C222" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B223" s="4">
+        <v>300321</v>
+      </c>
+      <c r="C223" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B224" s="4">
+        <v>300322</v>
+      </c>
+      <c r="C224" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B225" s="4">
+        <v>300323</v>
+      </c>
+      <c r="C225" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B226" s="4">
+        <v>300324</v>
+      </c>
+      <c r="C226" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B227" s="4">
+        <v>300325</v>
+      </c>
+      <c r="C227" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B228" s="4">
+        <v>300326</v>
+      </c>
+      <c r="C228" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B229" s="4">
+        <v>300327</v>
+      </c>
+      <c r="C229" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B230" s="4">
+        <v>300328</v>
+      </c>
+      <c r="C230" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B231" s="4">
+        <v>300329</v>
+      </c>
+      <c r="C231" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B232" s="4">
+        <v>300330</v>
+      </c>
+      <c r="C232" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B233" s="4">
+        <v>300331</v>
+      </c>
+      <c r="C233" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B234" s="4">
+        <v>300332</v>
+      </c>
+      <c r="C234" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B235" s="4">
+        <v>300333</v>
+      </c>
+      <c r="C235" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B236" s="4">
+        <v>300334</v>
+      </c>
+      <c r="C236" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B237" s="4">
+        <v>300335</v>
+      </c>
+      <c r="C237" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B238" s="4">
+        <v>300336</v>
+      </c>
+      <c r="C238" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B239" s="4">
+        <v>300337</v>
+      </c>
+      <c r="C239" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B240" s="4">
+        <v>300338</v>
+      </c>
+      <c r="C240" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B241" s="4">
+        <v>300339</v>
+      </c>
+      <c r="C241" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B242" s="4">
+        <v>300340</v>
+      </c>
+      <c r="C242" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B243" s="4">
+        <v>300341</v>
+      </c>
+      <c r="C243" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B244" s="4">
+        <v>300342</v>
+      </c>
+      <c r="C244" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B245" s="4">
+        <v>300343</v>
+      </c>
+      <c r="C245" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B246" s="4">
+        <v>300344</v>
+      </c>
+      <c r="C246" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B247" s="4">
+        <v>300345</v>
+      </c>
+      <c r="C247" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B248" s="4">
+        <v>300346</v>
+      </c>
+      <c r="C248" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B249" s="4">
+        <v>300347</v>
+      </c>
+      <c r="C249" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B250" s="4">
+        <v>300348</v>
+      </c>
+      <c r="C250" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B251" s="4">
+        <v>300349</v>
+      </c>
+      <c r="C251" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B252" s="4">
+        <v>300350</v>
+      </c>
+      <c r="C252" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B253" s="4">
+        <v>300351</v>
+      </c>
+      <c r="C253" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B254" s="4">
+        <v>300352</v>
+      </c>
+      <c r="C254" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B255" s="4">
+        <v>300353</v>
+      </c>
+      <c r="C255" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B256" s="4">
+        <v>300354</v>
+      </c>
+      <c r="C256" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B257" s="4">
+        <v>300355</v>
+      </c>
+      <c r="C257" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B258" s="4">
+        <v>300356</v>
+      </c>
+      <c r="C258" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B259" s="4">
+        <v>300357</v>
+      </c>
+      <c r="C259" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B260" s="4">
+        <v>300358</v>
+      </c>
+      <c r="C260" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B261" s="4">
+        <v>300359</v>
+      </c>
+      <c r="C261" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B262" s="4">
+        <v>300360</v>
+      </c>
+      <c r="C262" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B263" s="4">
+        <v>300361</v>
+      </c>
+      <c r="C263" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B264" s="4">
+        <v>300362</v>
+      </c>
+      <c r="C264" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B265" s="4">
+        <v>300363</v>
+      </c>
+      <c r="C265" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B266" s="4">
+        <v>300364</v>
+      </c>
+      <c r="C266" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B267" s="4">
+        <v>300365</v>
+      </c>
+      <c r="C267" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B268" s="4">
+        <v>300366</v>
+      </c>
+      <c r="C268" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B269" s="4">
+        <v>300367</v>
+      </c>
+      <c r="C269" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B270" s="4">
+        <v>300368</v>
+      </c>
+      <c r="C270" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B271" s="4">
+        <v>300369</v>
+      </c>
+      <c r="C271" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B272" s="4">
+        <v>300370</v>
+      </c>
+      <c r="C272" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B273" s="4">
+        <v>300371</v>
+      </c>
+      <c r="C273" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B274" s="4">
+        <v>300372</v>
+      </c>
+      <c r="C274" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B275" s="4">
+        <v>300373</v>
+      </c>
+      <c r="C275" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B276" s="4">
+        <v>300374</v>
+      </c>
+      <c r="C276" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B277" s="4">
+        <v>300375</v>
+      </c>
+      <c r="C277" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B278" s="4">
+        <v>300376</v>
+      </c>
+      <c r="C278" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B279" s="4">
+        <v>300377</v>
+      </c>
+      <c r="C279" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B280" s="4">
+        <v>300378</v>
+      </c>
+      <c r="C280" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B281" s="4">
+        <v>300379</v>
+      </c>
+      <c r="C281" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B282" s="4">
+        <v>300380</v>
+      </c>
+      <c r="C282" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B283" s="4">
+        <v>300381</v>
+      </c>
+      <c r="C283" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B284" s="4">
+        <v>300382</v>
+      </c>
+      <c r="C284" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B285" s="4">
+        <v>300383</v>
+      </c>
+      <c r="C285" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B286" s="4">
+        <v>300384</v>
+      </c>
+      <c r="C286" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B287" s="4">
+        <v>300385</v>
+      </c>
+      <c r="C287" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B288" s="4">
+        <v>300386</v>
+      </c>
+      <c r="C288" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B289" s="4">
+        <v>300387</v>
+      </c>
+      <c r="C289" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B290" s="4">
+        <v>300388</v>
+      </c>
+      <c r="C290" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B291" s="4">
+        <v>300389</v>
+      </c>
+      <c r="C291" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B292" s="4">
+        <v>300390</v>
+      </c>
+      <c r="C292" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B293" s="4">
+        <v>300391</v>
+      </c>
+      <c r="C293" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B294" s="4">
+        <v>300392</v>
+      </c>
+      <c r="C294" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B295" s="4">
+        <v>300393</v>
+      </c>
+      <c r="C295" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B296" s="4">
+        <v>300394</v>
+      </c>
+      <c r="C296" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B297" s="4">
+        <v>300395</v>
+      </c>
+      <c r="C297" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B298" s="4">
+        <v>300396</v>
+      </c>
+      <c r="C298" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B299" s="4">
+        <v>300397</v>
+      </c>
+      <c r="C299" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B300" s="4">
+        <v>300398</v>
+      </c>
+      <c r="C300" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B301" s="4">
+        <v>300399</v>
+      </c>
+      <c r="C301" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B302" s="4">
+        <v>300400</v>
+      </c>
+      <c r="C302" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B303" s="4">
+        <v>300401</v>
+      </c>
+      <c r="C303" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B304" s="4">
+        <v>300402</v>
+      </c>
+      <c r="C304" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B305" s="4">
+        <v>300403</v>
+      </c>
+      <c r="C305" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B306" s="4">
+        <v>300404</v>
+      </c>
+      <c r="C306" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B307" s="4">
+        <v>300405</v>
+      </c>
+      <c r="C307" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B308" s="4">
+        <v>300406</v>
+      </c>
+      <c r="C308" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B309" s="4">
+        <v>300407</v>
+      </c>
+      <c r="C309" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B310" s="4">
+        <v>300408</v>
+      </c>
+      <c r="C310" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B311" s="4">
+        <v>300409</v>
+      </c>
+      <c r="C311" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B312" s="4">
+        <v>300410</v>
+      </c>
+      <c r="C312" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B313" s="4">
+        <v>300411</v>
+      </c>
+      <c r="C313" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B314" s="4">
+        <v>300412</v>
+      </c>
+      <c r="C314" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B315" s="4">
+        <v>300413</v>
+      </c>
+      <c r="C315" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B316" s="4">
+        <v>300414</v>
+      </c>
+      <c r="C316" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B317" s="4">
+        <v>300415</v>
+      </c>
+      <c r="C317" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B318" s="4">
+        <v>300416</v>
+      </c>
+      <c r="C318" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B319" s="4">
+        <v>300417</v>
+      </c>
+      <c r="C319" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B320" s="4">
+        <v>300418</v>
+      </c>
+      <c r="C320" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B321" s="4">
+        <v>300419</v>
+      </c>
+      <c r="C321" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B322" s="4">
+        <v>300420</v>
+      </c>
+      <c r="C322" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B323" s="4">
+        <v>300421</v>
+      </c>
+      <c r="C323" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B324" s="4">
+        <v>300422</v>
+      </c>
+      <c r="C324" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B325" s="4">
+        <v>300423</v>
+      </c>
+      <c r="C325" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B326" s="4">
+        <v>300424</v>
+      </c>
+      <c r="C326" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B327" s="4">
+        <v>300425</v>
+      </c>
+      <c r="C327" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B328" s="4">
+        <v>300426</v>
+      </c>
+      <c r="C328" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B329" s="4">
+        <v>300427</v>
+      </c>
+      <c r="C329" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B330" s="4">
+        <v>300428</v>
+      </c>
+      <c r="C330" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B331" s="4">
+        <v>300429</v>
+      </c>
+      <c r="C331" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B332" s="4">
+        <v>300430</v>
+      </c>
+      <c r="C332" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B333" s="4">
+        <v>300431</v>
+      </c>
+      <c r="C333" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B334" s="4">
+        <v>300432</v>
+      </c>
+      <c r="C334" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B335" s="4">
+        <v>300433</v>
+      </c>
+      <c r="C335" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B336" s="4">
+        <v>300434</v>
+      </c>
+      <c r="C336" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B337" s="4">
+        <v>300435</v>
+      </c>
+      <c r="C337" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B338" s="4">
+        <v>300436</v>
+      </c>
+      <c r="C338" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B339" s="4">
+        <v>300437</v>
+      </c>
+      <c r="C339" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B340" s="4">
+        <v>300438</v>
+      </c>
+      <c r="C340" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B341" s="4">
+        <v>300439</v>
+      </c>
+      <c r="C341" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B342" s="4">
+        <v>300440</v>
+      </c>
+      <c r="C342" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B343" s="4">
+        <v>300441</v>
+      </c>
+      <c r="C343" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B344" s="4">
+        <v>300442</v>
+      </c>
+      <c r="C344" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B345" s="4">
+        <v>300443</v>
+      </c>
+      <c r="C345" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B346" s="4">
+        <v>300444</v>
+      </c>
+      <c r="C346" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B347" s="4">
+        <v>300445</v>
+      </c>
+      <c r="C347" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B348" s="4">
+        <v>300446</v>
+      </c>
+      <c r="C348" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B349" s="4">
+        <v>300447</v>
+      </c>
+      <c r="C349" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B350" s="4">
+        <v>300448</v>
+      </c>
+      <c r="C350" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B351" s="4">
+        <v>300449</v>
+      </c>
+      <c r="C351" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B352" s="4">
+        <v>300450</v>
+      </c>
+      <c r="C352" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B353" s="4">
+        <v>300451</v>
+      </c>
+      <c r="C353" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B354" s="4">
+        <v>300452</v>
+      </c>
+      <c r="C354" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B355" s="4">
+        <v>300453</v>
+      </c>
+      <c r="C355" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B356" s="4">
+        <v>300454</v>
+      </c>
+      <c r="C356" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B357" s="4">
+        <v>300455</v>
+      </c>
+      <c r="C357" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B358" s="4">
+        <v>300456</v>
+      </c>
+      <c r="C358" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B359" s="4">
+        <v>300457</v>
+      </c>
+      <c r="C359" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B360" s="4">
+        <v>300458</v>
+      </c>
+      <c r="C360" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B361" s="4">
+        <v>300459</v>
+      </c>
+      <c r="C361" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B362" s="4">
+        <v>300460</v>
+      </c>
+      <c r="C362" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B363" s="4">
+        <v>300461</v>
+      </c>
+      <c r="C363" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B364" s="4">
+        <v>300462</v>
+      </c>
+      <c r="C364" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B365" s="4">
+        <v>300463</v>
+      </c>
+      <c r="C365" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B366" s="4">
+        <v>300464</v>
+      </c>
+      <c r="C366" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B367" s="4">
+        <v>300465</v>
+      </c>
+      <c r="C367" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B368" s="4">
+        <v>300466</v>
+      </c>
+      <c r="C368" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A369" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B369" s="4">
+        <v>300467</v>
+      </c>
+      <c r="C369" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B370" s="4">
+        <v>300468</v>
+      </c>
+      <c r="C370" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A371" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B371" s="4">
+        <v>300469</v>
+      </c>
+      <c r="C371" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A372" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B372" s="4">
+        <v>300470</v>
+      </c>
+      <c r="C372" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B373" s="4">
+        <v>300471</v>
+      </c>
+      <c r="C373" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B374" s="4">
+        <v>300472</v>
+      </c>
+      <c r="C374" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375" s="3" t="s">
+        <v>753</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>